--- a/FTSEMIB_tickers.xlsx
+++ b/FTSEMIB_tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucat\GitHub\Investments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400FC4B9-D7C3-4674-A8AE-2BE646CA6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56F8C97-10A2-42CB-B488-D28679FDAEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
   <si>
     <t>ticker</t>
   </si>
@@ -299,6 +299,12 @@
   </si>
   <si>
     <t>STLAM.MI</t>
+  </si>
+  <si>
+    <t>ERG.MI</t>
+  </si>
+  <si>
+    <t>Erg</t>
   </si>
 </sst>
 </file>
@@ -693,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1136,24 +1142,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
